--- a/biology/Histoire de la zoologie et de la botanique/Christian_Clodius/Christian_Clodius.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Christian_Clodius/Christian_Clodius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Clodius (né à Neustadt en 1694 et mort en 1775) est un poète, philosophe et érudit allemand.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est recteur de l'école latine d'Annaberg et du Gymnasium de Zwickau et l'un des fondateurs de la Deutsche Gesellschaft in Leipzig (en français « Société germanique à Leipzig »)[1].
-En 1729, il livre à Auguste II de Pologne, pour son cabinet de curiosités de la Grünes Gewölbe à Dresde, une collection de bois composée de 351 échantillons, contre une somme de 500 Reichsthaler[2]. Il en publie le catalogue sous le pseudonyme Lignophilus (en français « l'ami du bois »)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est recteur de l'école latine d'Annaberg et du Gymnasium de Zwickau et l'un des fondateurs de la Deutsche Gesellschaft in Leipzig (en français « Société germanique à Leipzig »).
+En 1729, il livre à Auguste II de Pologne, pour son cabinet de curiosités de la Grünes Gewölbe à Dresde, une collection de bois composée de 351 échantillons, contre une somme de 500 Reichsthaler. Il en publie le catalogue sous le pseudonyme Lignophilus (en français « l'ami du bois »).
 Il est le père du poète et philosophe Christian Auguste Clodius (de) (1737-1784).
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Lignophilus, Zuverlässige Nachricht von demjenigen Holtz-Cabinet, welches am 3. Jenner dieses 1729. Jahres in Ihro Königl. Majestät in Pohlen und Churfl. Durchl. zu Sachsen vortreffliche Naturalien-Cammer geliefert worden : nebst einem Verzeichniß aller und ieder darinnen befindlichen Holtz-Arten, in Latein. und Teutscher Sprache, Dresde, Heckel, 1729, 40 p. (lire en ligne) (Catalogus lignorum exoticorum et nostratium germanicorum ex arboribus, arbusculis et fruticibus varii generis collectorum, secundum editus a Christiano Clodio, p. 17-31)
 Christian Clodius est aussi l'auteur de poésies en français et en allemand, de dissertations philosophiques en latin et d'une histoire de la Réforme à Zwickau (publiée à Zwickau en 1756).
